--- a/data/income_statement/3digits/total/352_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/352_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>352-Manufacture of gas; distribution of gaseous fuels through mains</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>352-Manufacture of gas; distribution of gaseous fuels through mains</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,17 +841,22 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>7860406.52188</v>
+        <v>7860406.521879999</v>
       </c>
       <c r="D5" s="47" t="n">
         <v>7476489.336159999</v>
@@ -968,7 +874,7 @@
         <v>21023709.17333</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>25755782.3314</v>
+        <v>26463406.95792999</v>
       </c>
       <c r="J5" s="47" t="n">
         <v>25881804.55122</v>
@@ -982,17 +888,22 @@
       <c r="M5" s="47" t="n">
         <v>41112820.59214</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5" s="47" t="n">
+        <v>56901020.246</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>7739423.81955</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>7300205.92462</v>
+        <v>7300205.924620001</v>
       </c>
       <c r="E6" s="48" t="n">
         <v>10571290.96825</v>
@@ -1007,7 +918,7 @@
         <v>20734106.51639</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>25464713.65907</v>
+        <v>26169165.668</v>
       </c>
       <c r="J6" s="48" t="n">
         <v>25621394.26198</v>
@@ -1021,11 +932,16 @@
       <c r="M6" s="48" t="n">
         <v>40948778.43896</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6" s="48" t="n">
+        <v>56721240.267</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>7072.78586</v>
@@ -1060,11 +976,16 @@
       <c r="M7" s="48" t="n">
         <v>96632.09519999998</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="48" t="n">
+        <v>116943.441</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>113909.91647</v>
@@ -1085,7 +1006,7 @@
         <v>255878.8181</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>256269.22734</v>
+        <v>259441.84494</v>
       </c>
       <c r="J8" s="48" t="n">
         <v>216612.46484</v>
@@ -1099,11 +1020,16 @@
       <c r="M8" s="48" t="n">
         <v>67410.05798</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8" s="48" t="n">
+        <v>62836.538</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>35455.71002</v>
@@ -1112,19 +1038,19 @@
         <v>33008.14618</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>47665.60419</v>
+        <v>47665.60419000001</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>52510.95783</v>
+        <v>52510.95783000001</v>
       </c>
       <c r="G9" s="47" t="n">
         <v>93991.64186</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>86327.73969000002</v>
+        <v>86327.73969</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>268397.91088</v>
+        <v>268539.89595</v>
       </c>
       <c r="J9" s="47" t="n">
         <v>291577.60238</v>
@@ -1138,11 +1064,16 @@
       <c r="M9" s="47" t="n">
         <v>559589.1244099999</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="47" t="n">
+        <v>1039315.936</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>34154.518</v>
@@ -1163,13 +1094,13 @@
         <v>85466.23957999999</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>203501.33374</v>
+        <v>203643.31881</v>
       </c>
       <c r="J10" s="48" t="n">
         <v>208167.27937</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>82474.72260000001</v>
+        <v>82474.72259999999</v>
       </c>
       <c r="L10" s="48" t="n">
         <v>208452.01666</v>
@@ -1177,11 +1108,16 @@
       <c r="M10" s="48" t="n">
         <v>252309.89193</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="48" t="n">
+        <v>645118.0649999999</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>1269.3859</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>17299.01333</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>2878.89</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>31.80612</v>
@@ -1238,7 +1179,7 @@
         <v>167.94458</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>839.43136</v>
+        <v>839.4313600000002</v>
       </c>
       <c r="I12" s="48" t="n">
         <v>59764.46985</v>
@@ -1255,11 +1196,16 @@
       <c r="M12" s="48" t="n">
         <v>289980.21915</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>391318.981</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>7824950.81186</v>
@@ -1280,7 +1226,7 @@
         <v>20937381.43364</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>25487384.42052</v>
+        <v>26194867.06198</v>
       </c>
       <c r="J13" s="47" t="n">
         <v>25590226.94884</v>
@@ -1294,20 +1240,25 @@
       <c r="M13" s="47" t="n">
         <v>40553231.46772999</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13" s="47" t="n">
+        <v>55861704.31</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>7177375.211040001</v>
+        <v>7177375.211039999</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>6748128.32275</v>
+        <v>6748128.322750001</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>9677841.677550001</v>
+        <v>9677841.677549999</v>
       </c>
       <c r="F14" s="47" t="n">
         <v>11972071.00812</v>
@@ -1319,7 +1270,7 @@
         <v>19560009.63141</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>23538169.21412</v>
+        <v>24171282.85228</v>
       </c>
       <c r="J14" s="47" t="n">
         <v>22919775.30505</v>
@@ -1333,11 +1284,16 @@
       <c r="M14" s="47" t="n">
         <v>36958758.3019</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14" s="47" t="n">
+        <v>51287872.397</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>0</v>
@@ -1358,10 +1314,10 @@
         <v>1392.51583</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>61923.77417000001</v>
+        <v>61923.77417</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>5779.2818</v>
+        <v>5779.281800000001</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>5303.6178</v>
@@ -1372,20 +1328,25 @@
       <c r="M15" s="48" t="n">
         <v>16867.7396</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="48" t="n">
+        <v>39913.788</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>6923177.02486</v>
+        <v>6923177.024859999</v>
       </c>
       <c r="D16" s="48" t="n">
         <v>5985126.33855</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>9306763.711130001</v>
+        <v>9306763.711129999</v>
       </c>
       <c r="F16" s="48" t="n">
         <v>11382466.88496</v>
@@ -1397,7 +1358,7 @@
         <v>18721211.77004</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>22440229.20931</v>
+        <v>23073340.77377</v>
       </c>
       <c r="J16" s="48" t="n">
         <v>21859047.86597</v>
@@ -1411,11 +1372,16 @@
       <c r="M16" s="48" t="n">
         <v>33808432.85883</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16" s="48" t="n">
+        <v>47383628.98</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>253465.0627</v>
@@ -1424,16 +1390,16 @@
         <v>289790.12374</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>352247.12593</v>
+        <v>352247.1259299999</v>
       </c>
       <c r="F17" s="48" t="n">
         <v>505234.67684</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>816794.7135699999</v>
+        <v>816794.71357</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>832540.4313499999</v>
+        <v>832540.43135</v>
       </c>
       <c r="I17" s="48" t="n">
         <v>1028164.77307</v>
@@ -1450,11 +1416,16 @@
       <c r="M17" s="48" t="n">
         <v>3126720.037</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17" s="48" t="n">
+        <v>3856480.581</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>733.12348</v>
@@ -1475,7 +1446,7 @@
         <v>4864.91419</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>7851.45757</v>
+        <v>7853.53127</v>
       </c>
       <c r="J18" s="48" t="n">
         <v>6589.06756</v>
@@ -1489,11 +1460,16 @@
       <c r="M18" s="48" t="n">
         <v>6737.66647</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>7849.048</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>647575.6008200001</v>
@@ -1514,7 +1490,7 @@
         <v>1377371.80223</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1949215.2064</v>
+        <v>2023584.2097</v>
       </c>
       <c r="J19" s="47" t="n">
         <v>2670451.64379</v>
@@ -1528,11 +1504,16 @@
       <c r="M19" s="47" t="n">
         <v>3594473.16583</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19" s="47" t="n">
+        <v>4573831.913</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>650654.91461</v>
@@ -1541,7 +1522,7 @@
         <v>685380.0811000001</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>824622.8768799999</v>
+        <v>824622.87688</v>
       </c>
       <c r="F20" s="47" t="n">
         <v>865751.0541699999</v>
@@ -1553,25 +1534,30 @@
         <v>1129894.26506</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1126828.5216</v>
+        <v>1174510.10314</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1270502.25483</v>
+        <v>1270502.30227</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>1269244.34354</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>991710.6836399998</v>
+        <v>991713.6039999999</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1053602.60309</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1053630.61427</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1012692.189</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>6283.46874</v>
@@ -1606,11 +1592,16 @@
       <c r="M21" s="48" t="n">
         <v>10357.72464</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>16467.301</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>426532.57708</v>
@@ -1625,13 +1616,13 @@
         <v>537357.6921399999</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>620226.3189599999</v>
+        <v>620226.3189600001</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>712543.39568</v>
+        <v>712543.3956800001</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>519359.22375</v>
+        <v>556019.94786</v>
       </c>
       <c r="J22" s="48" t="n">
         <v>518379.51278</v>
@@ -1643,13 +1634,18 @@
         <v>115218.50414</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>121358.68567</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>121376.27711</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>37432.773</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>217838.8687899999</v>
@@ -1661,34 +1657,39 @@
         <v>302658.45983</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>321317.30627</v>
+        <v>321317.3062699999</v>
       </c>
       <c r="G23" s="48" t="n">
         <v>360391.74903</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>410064.6542999999</v>
+        <v>410064.6543</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>602542.4025100002</v>
+        <v>613563.2599399999</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>744394.25973</v>
+        <v>744394.3071699999</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>806422.25203</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>869705.54053</v>
+        <v>869708.46089</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>921886.1927799999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>921896.6125200001</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>958792.115</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>-3079.31379</v>
@@ -1709,25 +1710,30 @@
         <v>247477.53717</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>822386.6848</v>
+        <v>849074.1065600001</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>1399949.38896</v>
+        <v>1399949.34152</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>1791209.12742</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>1951779.58774</v>
+        <v>1951776.66738</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>2540870.56274</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>2540842.55156</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>3561139.724</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>409739.07241</v>
@@ -1742,13 +1748,13 @@
         <v>920755.03685</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>795972.0497299999</v>
+        <v>795972.0497300001</v>
       </c>
       <c r="H25" s="47" t="n">
         <v>1295292.52463</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>1441351.58585</v>
+        <v>1506928.50838</v>
       </c>
       <c r="J25" s="47" t="n">
         <v>2200547.82007</v>
@@ -1762,11 +1768,16 @@
       <c r="M25" s="47" t="n">
         <v>2780259.76439</v>
       </c>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="N25" s="47" t="n">
+        <v>3741565.591</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>16.32328</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>39398.92072000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>111816.379</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>2728.32682</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>514140.60103</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>627163.697</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>120708.05678</v>
@@ -1865,7 +1886,7 @@
         <v>326738.17065</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>457319.28136</v>
+        <v>457746.2798</v>
       </c>
       <c r="J28" s="48" t="n">
         <v>607542.47598</v>
@@ -1879,11 +1900,16 @@
       <c r="M28" s="48" t="n">
         <v>1029113.41343</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="N28" s="48" t="n">
+        <v>1026505.666</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>4259.24277</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>3590.49753</v>
@@ -1937,13 +1968,13 @@
         <v>4306.47772</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>4529.384940000001</v>
+        <v>4529.38494</v>
       </c>
       <c r="H30" s="48" t="n">
         <v>7900.169559999999</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>8600.61939</v>
+        <v>8618.697910000001</v>
       </c>
       <c r="J30" s="48" t="n">
         <v>10332.75577</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>30111.04915</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>42220.363</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>220.02069</v>
@@ -1996,11 +2032,16 @@
       <c r="M31" s="48" t="n">
         <v>969.04668</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>35649.586</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>91605.96515</v>
@@ -2021,7 +2062,7 @@
         <v>569310.96063</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>553289.51697</v>
+        <v>618174.71309</v>
       </c>
       <c r="J32" s="48" t="n">
         <v>853332.4320899999</v>
@@ -2035,11 +2076,16 @@
       <c r="M32" s="48" t="n">
         <v>784212.6387</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N32" s="48" t="n">
+        <v>1487903.191</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>186610.63939</v>
@@ -2132,19 +2188,19 @@
         <v>318815.73823</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>310056.42408</v>
+        <v>310056.4240800001</v>
       </c>
       <c r="H35" s="48" t="n">
         <v>271670.7653200001</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>279640.92638</v>
+        <v>279887.57583</v>
       </c>
       <c r="J35" s="48" t="n">
         <v>327036.61361</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>317161.83596</v>
+        <v>317161.8359600001</v>
       </c>
       <c r="L35" s="48" t="n">
         <v>245367.24416</v>
@@ -2152,14 +2208,19 @@
       <c r="M35" s="48" t="n">
         <v>382314.0946799999</v>
       </c>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="N35" s="48" t="n">
+        <v>410131.709</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>95157.99770000001</v>
+        <v>95157.99769999999</v>
       </c>
       <c r="D36" s="47" t="n">
         <v>132493.72238</v>
@@ -2177,7 +2238,7 @@
         <v>1067696.10115</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>1765054.79973</v>
+        <v>1877892.53597</v>
       </c>
       <c r="J36" s="47" t="n">
         <v>1838679.77163</v>
@@ -2191,11 +2252,16 @@
       <c r="M36" s="47" t="n">
         <v>1650051.19421</v>
       </c>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="N36" s="47" t="n">
+        <v>2871106.338</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>535.91661</v>
@@ -2230,17 +2296,22 @@
       <c r="M37" s="48" t="n">
         <v>131.70695</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>175.102</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>35268.739</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>39858.93580000001</v>
+        <v>39858.9358</v>
       </c>
       <c r="E38" s="48" t="n">
         <v>14024.28181</v>
@@ -2249,13 +2320,13 @@
         <v>48286.29302</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>39037.59990000001</v>
+        <v>39037.5999</v>
       </c>
       <c r="H38" s="48" t="n">
         <v>29731.86388</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>51115.12104</v>
+        <v>51235.25523</v>
       </c>
       <c r="J38" s="48" t="n">
         <v>37322.05626999999</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>113512.57805</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>145768.58</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0.48794</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>647.087</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>37179.59148</v>
@@ -2321,19 +2402,19 @@
         <v>75681.65205000002</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>629906.6147100001</v>
+        <v>629906.6147099999</v>
       </c>
       <c r="F40" s="48" t="n">
         <v>175810.6554</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>945201.5848399999</v>
+        <v>945201.5848400001</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>965094.1253300002</v>
+        <v>965094.12533</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>1633080.20136</v>
+        <v>1745797.80341</v>
       </c>
       <c r="J40" s="48" t="n">
         <v>1582389.66091</v>
@@ -2347,11 +2428,16 @@
       <c r="M40" s="48" t="n">
         <v>1148824.1158</v>
       </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="N40" s="48" t="n">
+        <v>2228863.672</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>22173.26267</v>
@@ -2438,7 +2534,7 @@
         <v>15519.05369</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>42815.93377000001</v>
+        <v>42815.93377</v>
       </c>
       <c r="F43" s="48" t="n">
         <v>20598.33483</v>
@@ -2447,7 +2543,7 @@
         <v>44984.47173</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>72729.95716000001</v>
+        <v>72729.95715999999</v>
       </c>
       <c r="I43" s="48" t="n">
         <v>80853.06800999999</v>
@@ -2464,11 +2560,16 @@
       <c r="M43" s="48" t="n">
         <v>387582.79341</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" s="48" t="n">
+        <v>495651.897</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>309231.3141</v>
@@ -2483,16 +2584,16 @@
         <v>302485.06323</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>433353.1855199999</v>
+        <v>433353.18552</v>
       </c>
       <c r="H44" s="47" t="n">
         <v>523779.77354</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>634380.4421900001</v>
+        <v>654505.68736</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>687618.0014500001</v>
+        <v>687618.0014500002</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>849067.12505</v>
@@ -2503,11 +2604,16 @@
       <c r="M44" s="47" t="n">
         <v>1910172.02508</v>
       </c>
-    </row>
-    <row r="45" spans="1:13">
+      <c r="N44" s="47" t="n">
+        <v>2364752.747</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>176619.86156</v>
@@ -2528,25 +2634,30 @@
         <v>196904.41076</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>254790.38961</v>
+        <v>270668.3239600001</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>345254.4005399999</v>
+        <v>345254.40054</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>392039.1929799999</v>
+        <v>392039.19298</v>
       </c>
       <c r="L45" s="48" t="n">
         <v>747193.90851</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>909229.68958</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>909229.6895799999</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>1384817.133</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>132611.45254</v>
@@ -2567,7 +2678,7 @@
         <v>326875.36278</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>379590.05258</v>
+        <v>383837.3634</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>342363.60091</v>
@@ -2576,22 +2687,27 @@
         <v>457027.93207</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>917798.7534900001</v>
+        <v>917798.75349</v>
       </c>
       <c r="M46" s="48" t="n">
         <v>1000942.3355</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>979935.6139999999</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>2270.446819999998</v>
+        <v>2270.446819999996</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>-333.7668300000001</v>
+        <v>-333.766830000002</v>
       </c>
       <c r="E47" s="47" t="n">
         <v>-255923.88036</v>
@@ -2600,31 +2716,36 @@
         <v>567727.8924400001</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-381545.60038</v>
+        <v>-381545.6003800001</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-48705.81289</v>
+        <v>-48705.81289000002</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-135696.97127</v>
+        <v>-176395.60839</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>1074199.43595</v>
+        <v>1074199.38851</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>2328532.79824</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>1652237.30551</v>
+        <v>1652234.38515</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>1760907.10784</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>1760879.09666</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>2066846.23</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>15489.67359</v>
@@ -2645,7 +2766,7 @@
         <v>35583.48744</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>39043.87309</v>
+        <v>39697.74705000001</v>
       </c>
       <c r="J48" s="47" t="n">
         <v>146210.14841</v>
@@ -2659,11 +2780,16 @@
       <c r="M48" s="47" t="n">
         <v>132691.89402</v>
       </c>
-    </row>
-    <row r="49" spans="1:13">
+      <c r="N48" s="47" t="n">
+        <v>68056.639</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>37.53847</v>
@@ -2693,16 +2819,21 @@
         <v>6745.5807</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>952.4063799999999</v>
+        <v>952.40638</v>
       </c>
       <c r="M49" s="48" t="n">
         <v>10538.60109</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>2337.705</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>15452.13512</v>
@@ -2723,37 +2854,42 @@
         <v>33183.64265</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>34914.14232</v>
+        <v>35568.01628</v>
       </c>
       <c r="J50" s="48" t="n">
         <v>145702.79554</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>36842.72297000001</v>
+        <v>36842.72297</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>44502.68433999999</v>
+        <v>44502.68434000001</v>
       </c>
       <c r="M50" s="48" t="n">
         <v>122153.29293</v>
       </c>
-    </row>
-    <row r="51" spans="1:13">
+      <c r="N50" s="48" t="n">
+        <v>65718.93399999999</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>59671.94503</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>39045.93772</v>
+        <v>39045.93771999999</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>42144.71979000001</v>
+        <v>42144.71979</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>40473.19273000001</v>
+        <v>40473.19273</v>
       </c>
       <c r="G51" s="47" t="n">
         <v>138076.24763</v>
@@ -2762,7 +2898,7 @@
         <v>67839.50364</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>107505.19619</v>
+        <v>109837.87275</v>
       </c>
       <c r="J51" s="47" t="n">
         <v>173783.87777</v>
@@ -2771,16 +2907,21 @@
         <v>123016.42198</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>648579.2443700001</v>
+        <v>648579.24437</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>404768.36956</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>404768.37018</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>74536.71799999999</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>111.65763</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>919.36563</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>38316.37742</v>
@@ -2840,10 +2986,10 @@
         <v>6356.92779</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>4771.81651</v>
+        <v>4771.816510000001</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>5364.64022</v>
+        <v>5364.640219999999</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>3862.26837</v>
@@ -2854,11 +3000,16 @@
       <c r="M53" s="48" t="n">
         <v>1835.5136</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>2179.795</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>21243.90998</v>
@@ -2870,7 +3021,7 @@
         <v>32773.97879</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>36237.02368999999</v>
+        <v>36237.02369</v>
       </c>
       <c r="G54" s="48" t="n">
         <v>136313.19563</v>
@@ -2879,7 +3030,7 @@
         <v>61114.75768</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>102733.37968</v>
+        <v>105066.05624</v>
       </c>
       <c r="J54" s="48" t="n">
         <v>168419.23755</v>
@@ -2891,61 +3042,71 @@
         <v>648081.54075</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>402013.4903300001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>402013.49095</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>72356.923</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>-41911.82462000001</v>
+        <v>-41911.82462</v>
       </c>
       <c r="D55" s="47" t="n">
         <v>-24531.00198</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-280390.1705</v>
+        <v>-280390.1705000001</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>545758.56775</v>
+        <v>545758.5677500002</v>
       </c>
       <c r="G55" s="47" t="n">
         <v>-495557.93885</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-80961.82908999998</v>
+        <v>-80961.82909</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-204158.29437</v>
+        <v>-246535.73409</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>1046625.70659</v>
+        <v>1046625.65915</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>2249104.67993</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>1049113.15186</v>
+        <v>1049110.2315</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>1488830.6323</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>1488802.6205</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>2060366.151</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>28496.54718000001</v>
+        <v>28496.54718</v>
       </c>
       <c r="D56" s="47" t="n">
         <v>42600.76688</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>86148.75469000002</v>
+        <v>86148.75469</v>
       </c>
       <c r="F56" s="47" t="n">
         <v>109170.2604</v>
@@ -2971,14 +3132,19 @@
       <c r="M56" s="47" t="n">
         <v>340901.22933</v>
       </c>
-    </row>
-    <row r="57" spans="1:13">
+      <c r="N56" s="47" t="n">
+        <v>391168.507</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-70408.37179999999</v>
+        <v>-70408.37180000001</v>
       </c>
       <c r="D57" s="47" t="n">
         <v>-67131.76886</v>
@@ -2996,22 +3162,25 @@
         <v>-230628.62393</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-420415.6801299999</v>
+        <v>-462793.1198500001</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>825482.44779</v>
+        <v>825482.4003499999</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>1969523.97174</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>674234.64971</v>
+        <v>674231.72935</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>1147929.40297</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>1147901.39117</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>1669197.644</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>92</v>
@@ -3050,22 +3222,25 @@
         <v>133</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>126</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>137</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>